--- a/QA Docs/QA_Tracker.xlsx
+++ b/QA Docs/QA_Tracker.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Documents\GitHub\AdminQAnalyzer\QA Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
-    <sheet name="Issues" sheetId="1" r:id="rId1"/>
+    <sheet name="Issues Tracking" sheetId="1" r:id="rId1"/>
     <sheet name="GUI Tests" sheetId="2" r:id="rId2"/>
-    <sheet name="Mapping" sheetId="3" r:id="rId3"/>
-    <sheet name="HeaderParser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="190">
   <si>
     <t>GUI</t>
   </si>
@@ -96,9 +99,6 @@
     <t>Return column by default is too small to show its title</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -159,14 +159,449 @@
     <t>Mismatch of Structs to OpCodes</t>
   </si>
   <si>
-    <t>HEAD</t>
+    <t>dependency</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>ANDREY/GUI BRANCH</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>josh</t>
+  </si>
+  <si>
+    <t>display parsed flag names</t>
+  </si>
+  <si>
+    <t>Gui</t>
+  </si>
+  <si>
+    <t>display parsed error names</t>
+  </si>
+  <si>
+    <t>raw byte buffer</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Filtering - using toggle buttons</t>
+  </si>
+  <si>
+    <t>no?</t>
+  </si>
+  <si>
+    <t>Robbie</t>
+  </si>
+  <si>
+    <t>display time stamp</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>parsing of flags in header file</t>
+  </si>
+  <si>
+    <t>parsing of error codes in header file</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>Andrew W</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>parsing of time stamp</t>
+  </si>
+  <si>
+    <t>discrepancies between header files</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>2/14 -- still several errors in mapping file (namely stuff that's larger than 16 byte command structs)</t>
+  </si>
+  <si>
+    <t>exceptions on good structs</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Generic AQ</t>
+  </si>
+  <si>
+    <t>#defines mapped</t>
+  </si>
+  <si>
+    <t>Andrew w</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>parsing of error codes in log file</t>
+  </si>
+  <si>
+    <t>parsing of flags in log file.</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>parsing of lancof</t>
+  </si>
+  <si>
+    <t>andrew q</t>
+  </si>
+  <si>
+    <t>NOT VALID</t>
+  </si>
+  <si>
+    <t>Per Anderw W &gt; closing due to not being a valid issue</t>
+  </si>
+  <si>
+    <t>total amounts of in file or in search</t>
+  </si>
+  <si>
+    <t>dustin</t>
+  </si>
+  <si>
+    <t>raw byte buffer returns nothing</t>
+  </si>
+  <si>
+    <t>steve</t>
+  </si>
+  <si>
+    <t>flag hovering to flag name</t>
+  </si>
+  <si>
+    <t>Check junk filter</t>
+  </si>
+  <si>
+    <t>Andrew Q</t>
+  </si>
+  <si>
+    <t>IMPLEMENTED</t>
+  </si>
+  <si>
+    <t>naive approach was fine due to steve's regexes...</t>
+  </si>
+  <si>
+    <t>parsing of fail_update</t>
+  </si>
+  <si>
+    <t>Thread file opening</t>
+  </si>
+  <si>
+    <t>Loading bar for file opening</t>
+  </si>
+  <si>
+    <t>File&gt;Options window purpose? it seems it doesnt do anything... ok button is hidden behind the frame by degault</t>
+  </si>
+  <si>
+    <t>Sorting by "#" numbers are not in asc order</t>
+  </si>
+  <si>
+    <t>line numbers dont correspond to the raw file ( off by 1 line)</t>
+  </si>
+  <si>
+    <t>flash_update_fail.log &amp; lanconf.log wont open</t>
+  </si>
+  <si>
+    <t>see issue 26.. lan_conf is not a valid file</t>
+  </si>
+  <si>
+    <t>I can type in right bottom frame? Please lock it...</t>
+  </si>
+  <si>
+    <t>mismatch of mapping vs. struct header parser</t>
+  </si>
+  <si>
+    <t>show friendly error message if cant open the file</t>
+  </si>
+  <si>
+    <t>Timestamp column displays orphaned entries when searching</t>
+  </si>
+  <si>
+    <t>Cant select a row using flags column ( or its really slow and laggy)</t>
+  </si>
+  <si>
+    <t>If i maximize window, than restore.. flags column does not display accurately</t>
+  </si>
+  <si>
+    <t>Copy row vs copy cell on flags column gives different results</t>
+  </si>
+  <si>
+    <t>NOT FIXED</t>
+  </si>
+  <si>
+    <t>i dont know if we care about this one</t>
+  </si>
+  <si>
+    <t>Cant filter and search within filtered content</t>
+  </si>
+  <si>
+    <t>After resizing columns if the second file is opened.. op code column takes the whole screen</t>
+  </si>
+  <si>
+    <t>Automatically switch to new tab when a file is opened</t>
+  </si>
+  <si>
+    <t>Flags ... performing bitwise AND, different results...(this is a question)</t>
+  </si>
+  <si>
+    <t>Log parser doesnt parse to right op code</t>
+  </si>
+  <si>
+    <t>search doesnt work on line numbers</t>
+  </si>
+  <si>
+    <t>sorting by flags... inconsistent</t>
+  </si>
+  <si>
+    <t>for file "flash_udpate_fail.log" since timestamp is missing.. GUI should not display -1.-1</t>
+  </si>
+  <si>
+    <t>Page UP and Page down, holding arrowDown .. crashes the app</t>
+  </si>
+  <si>
+    <t>invalid record actually causing the crash not the key( see issue 54)</t>
+  </si>
+  <si>
+    <t>certain recrods throw exception into GUI ( example line 889 in normal_trace_syslog file)</t>
+  </si>
+  <si>
+    <t>Cant search by flag names</t>
+  </si>
+  <si>
+    <t>not going be fixed</t>
+  </si>
+  <si>
+    <t>when we display field values... bit value displayed is different than in logs.. exampe: log(normal_trace..) file at line 162show param (0,1) 0x000052E4 0x0000892B.... GUI displays these values as E4 52 00 00 and 2B 89 00 00 ..</t>
+  </si>
+  <si>
+    <t>little endian vs big endian</t>
+  </si>
+  <si>
+    <t>when timestamp column is missing.. an extra column appears on the right ( see issue 52)</t>
+  </si>
+  <si>
+    <t>this is a feature not a bug</t>
+  </si>
+  <si>
+    <t>Displaying opcode for UNKNOWN is invalid (Example GUI displays opcode 0xFFFFFF03 when the actual opcode is 0xFF03)</t>
+  </si>
+  <si>
+    <t>No processsing logs being created by the app</t>
+  </si>
+  <si>
+    <t>stretch goal?</t>
+  </si>
+  <si>
+    <t>writeback column is too small by default ( the header is not readable)</t>
+  </si>
+  <si>
+    <t>Limit search bar to 255 char? this is a wish list</t>
+  </si>
+  <si>
+    <t>Fixed/kinda</t>
+  </si>
+  <si>
+    <t>wish list</t>
+  </si>
+  <si>
+    <t>if no row selected and I do right click on the header row... the menu(copy row/copy cell) simply sticks..</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>when i close the file.. events total wont clear</t>
+  </si>
+  <si>
+    <t>Soting by Filed Name and Filed Value.. not the same behavior as the rest of the app sorting.. ( 3rd stage (unsorted) should bring back original state)</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>Once i collapse the bottom frame.. i cannot bring it back up</t>
+  </si>
+  <si>
+    <t>It needs a pronounceable name</t>
+  </si>
+  <si>
+    <t>Andrey shortened the name to AdminQ Viewer</t>
+  </si>
+  <si>
+    <t>When field data is a u16 or u32, it would be nice to print that value rather (or maybe in addition to?) the raw byte</t>
+  </si>
+  <si>
+    <t>Backend/gui</t>
+  </si>
+  <si>
+    <t>andrew w/andrey</t>
+  </si>
+  <si>
+    <t>The datalen value would be useful to have printed somewhere, possibly over the lower right data buffer pane</t>
+  </si>
+  <si>
+    <t>see issue # 80</t>
+  </si>
+  <si>
+    <t>I’m seeing incorrect values in the data buffer pane. For example, looking in the flash_update_fail.log that I send you, the data for the first nvm_read (line 13294) shows as “8600 0000”, but the logfile shows “00008086 00000000”. The following writeback buffer is shown as “8000 0000” but the logfile shows “00007D80 00000000”.</t>
+  </si>
+  <si>
+    <t>There is a set of data messages that are a little different than the request and response messages, and they need to be indicated in the UI somehow. for example, starting on line 41734 of the flash_update_fail.log, there is the 0x0703 request, followed by the writeback on line 41741; note that those are started by an “AQTX” tag. These two are followed by another 0x0703, but this is tagged with “AQRX”: this is an asynchronous event message that needs to be identified differently.</t>
+  </si>
+  <si>
+    <t>gui/backend</t>
+  </si>
+  <si>
+    <t>andrey/andrew w</t>
+  </si>
+  <si>
+    <t>ALMOST</t>
+  </si>
+  <si>
+    <t>see issue 82</t>
+  </si>
+  <si>
+    <t>The sorting of the columns seems backwards to me – the arrow should be pointing in the direction of the increasing values. When the file is first loaded, the lines are in their temporal order as expected, but the arrow is pointing up – I would expect it to be pointing down</t>
+  </si>
+  <si>
+    <t>looks like we are not going to do this one.</t>
+  </si>
+  <si>
+    <t>When sorting the Opcode column, please sort by opcode value, not name.</t>
+  </si>
+  <si>
+    <t>In the Op Code view, for convenience and consistency with our internal documentation and code, please display this with leading to fill 4 columns. For example, I would write the printf spec as “0x%04x”. This might actually help with the sorting issue if this is put at the beginning of the field rather than at the end.</t>
+  </si>
+  <si>
+    <t>Looking at the file normal_trace_dmesg.log, the field names and values shown for opcode “UNKNOWN – 0x205” change from entry to entry. Perhaps a previous decoding is being used? If the opcode and decoding is not known, then we should see the default fields cookie, param1, param2, addr_high and addr_low.</t>
+  </si>
+  <si>
+    <t>andrew w</t>
+  </si>
+  <si>
+    <t>Looking at the file normal_trace_dmesg.log sorted by opcode, stepping through each of the 0x211 lines shows data fields of several different layouts. I suspect that the order of lines displayed in the GUI is being used to directly index the database and getting the wrong data.</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>andrey</t>
+  </si>
+  <si>
+    <t>andrey said fixed please check</t>
+  </si>
+  <si>
+    <t>I think I didn’t point out to you that there are several different devices that print at the same time into the log, and we need to be able to separate out these conversations. This is easiest to see in the file normal_trace_dmesg.log. Note that each line has something like “i40e 00.0” or “i40e 00.1” or “i40e 00.3” in the prefix? This number is a device ID number.If we can add another column in the UI to display this device id, I believe we then could filter out the ones we want to see at any particular time.Be aware that sometime in the future, this number “00.3” format will probably change to the full PCI device ID spec seen elsewhere in this form: 0000:24:00.3.</t>
+  </si>
+  <si>
+    <t>backend/gui</t>
+  </si>
+  <si>
+    <t>REYNOLDS/NEWGUI</t>
+  </si>
+  <si>
+    <t>When opening the File|Open dialog to find a second file, it should open in the same folder that I found the first file.</t>
+  </si>
+  <si>
+    <t>Is it possible to add a Drag/Drop so I can find the file in the Window file explorer and drag it into the Viewer?</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>I like the flexibility of the panes and the columns, except for in the data buffer view. The data buffer view should always show lines only 16 bytes (well, okay, maybe 32 bytes, but either one of the other), with only the last line shorter if the data isn’t a multiple of 16 (or 32) bytes. That might mean needing a horizontal scrollbar.</t>
+  </si>
+  <si>
+    <t>FIXED SERGE CHECK</t>
+  </si>
+  <si>
+    <t>more testing needed once backend fixes buffer issues/ andrey fixed pleas update status</t>
+  </si>
+  <si>
+    <t>buffer line counter is not displaying correct value</t>
+  </si>
+  <si>
+    <t>FIXED/Kinda</t>
+  </si>
+  <si>
+    <t>we assume the counter always starts with 0.. its not always true</t>
+  </si>
+  <si>
+    <t>Display device ID</t>
+  </si>
+  <si>
+    <t>see issue 76</t>
+  </si>
+  <si>
+    <t>due to log file being incosistent we are not parsing all commands properly ( see question to shannon PDF)</t>
+  </si>
+  <si>
+    <t>decided not to fix it</t>
+  </si>
+  <si>
+    <t>search for line numbers are inconsistent the search by line tops out at 40000+ so if i search for a value 25360 it works.. but when i search 44040 nothing shows up.. althouh there is such a line</t>
+  </si>
+  <si>
+    <t>Incrementing buffer counter by 20 vs 10?</t>
+  </si>
+  <si>
+    <t>Search doesnt work for async or device Id fields</t>
+  </si>
+  <si>
+    <t>Drag-n-drop</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Column Resizing</t>
+  </si>
+  <si>
+    <t>Buffer size</t>
+  </si>
+  <si>
+    <t>Value/Key mapping</t>
+  </si>
+  <si>
+    <t>Flags ( sorting, display)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,22 +618,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF2C2D30"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -215,11 +697,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,8 +736,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,131 +1103,1796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="149.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>25</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>31</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>34</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>35</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>36</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>37</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>38</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>39</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>42</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>43</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>44</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>45</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>46</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>47</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>48</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>49</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>50</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>51</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>52</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>53</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>54</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>55</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>56</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>57</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>58</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>59</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>60</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>61</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>62</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>63</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>64</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>65</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>66</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>67</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="17">
+        <v>2</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>68</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="17">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>69</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="17">
+        <v>4</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>70</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="17">
+        <v>5</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>71</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="17">
+        <v>6</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>72</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="17">
+        <v>7</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>73</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="17">
+        <v>8</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>74</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
+      <c r="E72" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>75</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="17">
+        <v>10</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>76</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="17">
+        <v>11</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>77</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <v>12</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <v>78</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="17">
+        <v>13</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <v>79</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="17">
+        <v>14</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>80</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
+        <v>81</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <v>82</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>83</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>84</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <v>85</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -679,7 +2901,7 @@
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +2921,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -776,10 +2998,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -790,10 +3012,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -804,10 +3026,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -818,10 +3040,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -829,7 +3051,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -837,7 +3062,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -845,7 +3073,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -853,7 +3084,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -861,7 +3095,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -869,7 +3106,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -877,7 +3117,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -885,7 +3128,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -893,7 +3139,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -901,7 +3150,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -909,7 +3161,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -917,7 +3172,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -925,7 +3183,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -933,7 +3194,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -941,7 +3205,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -949,113 +3216,140 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1778,28 +4072,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>